--- a/cs-models/eai/cms/smk.dk/common.xlsx
+++ b/cs-models/eai/cms/smk.dk/common.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-eclipse\cs-models-new\models\eai\cms\smk.dk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="24000" windowHeight="10095"/>
   </bookViews>
@@ -463,9 +468,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>an..180</t>
   </si>
   <si>
@@ -496,9 +498,6 @@
     <t>titleAlternative</t>
   </si>
   <si>
-    <t>Inventory-/ ID-no.</t>
-  </si>
-  <si>
     <t>Unique ID for object record</t>
   </si>
   <si>
@@ -526,9 +525,6 @@
     <t>subType</t>
   </si>
   <si>
-    <t>Artist(s)</t>
-  </si>
-  <si>
     <t>An entity primarily responsible for creating an object.</t>
   </si>
   <si>
@@ -953,6 +949,15 @@
   </si>
   <si>
     <t>cultObj:dimensionsGross</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Kunstner/Producent</t>
+  </si>
+  <si>
+    <t>Inventar-/ID-nr.</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1302,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -1512,7 +1517,7 @@
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>142</v>
@@ -1533,28 +1538,28 @@
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>20</v>
@@ -1692,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1965,7 @@
         <v>74</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>75</v>
@@ -2582,12 +2587,12 @@
         <v>147</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>142</v>
@@ -2605,7 +2610,7 @@
         <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
@@ -2614,30 +2619,30 @@
         <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="O29" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>142</v>
@@ -2655,7 +2660,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -2664,27 +2669,27 @@
         <v>20</v>
       </c>
       <c r="J30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="O30" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>142</v>
@@ -2702,7 +2707,7 @@
         <v>59</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>20</v>
@@ -2711,30 +2716,30 @@
         <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>142</v>
@@ -2755,33 +2760,33 @@
         <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="O32" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>142</v>
@@ -2799,7 +2804,7 @@
         <v>77</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>20</v>
@@ -2808,30 +2813,30 @@
         <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="O33" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>142</v>
@@ -2849,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>20</v>
@@ -2858,27 +2863,27 @@
         <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="O34" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>142</v>
@@ -2905,27 +2910,27 @@
         <v>20</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="O35" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>142</v>
@@ -2952,22 +2957,22 @@
         <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>20</v>
@@ -2975,7 +2980,7 @@
     </row>
     <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>142</v>
@@ -2996,28 +3001,28 @@
         <v>68</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="O37" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>20</v>
@@ -3025,7 +3030,7 @@
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>142</v>
@@ -3046,28 +3051,28 @@
         <v>68</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>20</v>
@@ -3075,7 +3080,7 @@
     </row>
     <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>142</v>
@@ -3093,7 +3098,7 @@
         <v>77</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>20</v>
@@ -3102,22 +3107,22 @@
         <v>20</v>
       </c>
       <c r="J39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>20</v>
@@ -3125,7 +3130,7 @@
     </row>
     <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>142</v>
@@ -3143,21 +3148,21 @@
         <v>77</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>142</v>
@@ -3175,7 +3180,7 @@
         <v>77</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>20</v>
@@ -3184,22 +3189,22 @@
         <v>20</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>20</v>
@@ -3207,7 +3212,7 @@
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>142</v>
@@ -3225,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>20</v>
@@ -3234,27 +3239,27 @@
         <v>20</v>
       </c>
       <c r="J42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="O42" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>142</v>
@@ -3272,7 +3277,7 @@
         <v>77</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>20</v>
@@ -3281,27 +3286,27 @@
         <v>20</v>
       </c>
       <c r="J43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>142</v>
@@ -3319,7 +3324,7 @@
         <v>77</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>20</v>
@@ -3328,27 +3333,27 @@
         <v>20</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="O44" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>142</v>
@@ -3366,36 +3371,36 @@
         <v>77</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="O45" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>142</v>
@@ -3413,36 +3418,36 @@
         <v>77</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="O46" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>142</v>
@@ -3460,21 +3465,21 @@
         <v>77</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>142</v>
@@ -3492,36 +3497,36 @@
         <v>77</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="K48" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="O48" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>142</v>
@@ -3539,36 +3544,36 @@
         <v>77</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="O49" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>142</v>
@@ -3589,18 +3594,18 @@
         <v>72</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>142</v>
@@ -3621,18 +3626,18 @@
         <v>72</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>142</v>
@@ -3650,7 +3655,7 @@
         <v>77</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>20</v>
@@ -3659,7 +3664,7 @@
         <v>21</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>20</v>
@@ -3668,13 +3673,13 @@
         <v>20</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3706,7 +3711,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>20</v>
@@ -3715,18 +3720,18 @@
         <v>20</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>142</v>
@@ -3753,22 +3758,22 @@
         <v>20</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="O54" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
